--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4820"/>
+  <dimension ref="A1:C4822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82335,7 +82335,7 @@
       </c>
       <c r="C4818" t="inlineStr">
         <is>
-          <t>1889942.08443</t>
+          <t>1889942.10584</t>
         </is>
       </c>
     </row>
@@ -82352,7 +82352,7 @@
       </c>
       <c r="C4819" t="inlineStr">
         <is>
-          <t>1890650.94172</t>
+          <t>1890650.96313</t>
         </is>
       </c>
     </row>
@@ -82369,7 +82369,41 @@
       </c>
       <c r="C4820" t="inlineStr">
         <is>
-          <t>1889443.44301</t>
+          <t>1889443.46443</t>
+        </is>
+      </c>
+    </row>
+    <row r="4821">
+      <c r="A4821" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B4821" t="inlineStr">
+        <is>
+          <t>1752883200</t>
+        </is>
+      </c>
+      <c r="C4821" t="inlineStr">
+        <is>
+          <t>1890528.75102</t>
+        </is>
+      </c>
+    </row>
+    <row r="4822">
+      <c r="A4822" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B4822" t="inlineStr">
+        <is>
+          <t>1752969600</t>
+        </is>
+      </c>
+      <c r="C4822" t="inlineStr">
+        <is>
+          <t>1892266.15505</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4822"/>
+  <dimension ref="A1:C4823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82318,7 +82318,7 @@
       </c>
       <c r="C4817" t="inlineStr">
         <is>
-          <t>1890134.71670</t>
+          <t>1900315.45176</t>
         </is>
       </c>
     </row>
@@ -82335,7 +82335,7 @@
       </c>
       <c r="C4818" t="inlineStr">
         <is>
-          <t>1889942.10584</t>
+          <t>1896500.01730</t>
         </is>
       </c>
     </row>
@@ -82352,7 +82352,7 @@
       </c>
       <c r="C4819" t="inlineStr">
         <is>
-          <t>1890650.96313</t>
+          <t>1897548.55257</t>
         </is>
       </c>
     </row>
@@ -82369,7 +82369,7 @@
       </c>
       <c r="C4820" t="inlineStr">
         <is>
-          <t>1889443.46443</t>
+          <t>1893174.06457</t>
         </is>
       </c>
     </row>
@@ -82386,7 +82386,7 @@
       </c>
       <c r="C4821" t="inlineStr">
         <is>
-          <t>1890528.75102</t>
+          <t>1893201.97415</t>
         </is>
       </c>
     </row>
@@ -82403,7 +82403,24 @@
       </c>
       <c r="C4822" t="inlineStr">
         <is>
-          <t>1892266.15505</t>
+          <t>1894869.43728</t>
+        </is>
+      </c>
+    </row>
+    <row r="4823">
+      <c r="A4823" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B4823" t="inlineStr">
+        <is>
+          <t>1753056000</t>
+        </is>
+      </c>
+      <c r="C4823" t="inlineStr">
+        <is>
+          <t>1899021.80153</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4823"/>
+  <dimension ref="A1:C4825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82424,6 +82424,40 @@
         </is>
       </c>
     </row>
+    <row r="4824">
+      <c r="A4824" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B4824" t="inlineStr">
+        <is>
+          <t>1753142400</t>
+        </is>
+      </c>
+      <c r="C4824" t="inlineStr">
+        <is>
+          <t>1886553.01445</t>
+        </is>
+      </c>
+    </row>
+    <row r="4825">
+      <c r="A4825" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B4825" t="inlineStr">
+        <is>
+          <t>1753228800</t>
+        </is>
+      </c>
+      <c r="C4825" t="inlineStr">
+        <is>
+          <t>1886430.35600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4825"/>
+  <dimension ref="A1:C4828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82437,7 +82437,7 @@
       </c>
       <c r="C4824" t="inlineStr">
         <is>
-          <t>1886553.01445</t>
+          <t>1886553.04719</t>
         </is>
       </c>
     </row>
@@ -82454,7 +82454,58 @@
       </c>
       <c r="C4825" t="inlineStr">
         <is>
-          <t>1886430.35600</t>
+          <t>1886430.38874</t>
+        </is>
+      </c>
+    </row>
+    <row r="4826">
+      <c r="A4826" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B4826" t="inlineStr">
+        <is>
+          <t>1753315200</t>
+        </is>
+      </c>
+      <c r="C4826" t="inlineStr">
+        <is>
+          <t>1888060.01640</t>
+        </is>
+      </c>
+    </row>
+    <row r="4827">
+      <c r="A4827" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B4827" t="inlineStr">
+        <is>
+          <t>1753401600</t>
+        </is>
+      </c>
+      <c r="C4827" t="inlineStr">
+        <is>
+          <t>1891167.47747</t>
+        </is>
+      </c>
+    </row>
+    <row r="4828">
+      <c r="A4828" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B4828" t="inlineStr">
+        <is>
+          <t>1753488000</t>
+        </is>
+      </c>
+      <c r="C4828" t="inlineStr">
+        <is>
+          <t>1890262.89129</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4828"/>
+  <dimension ref="A1:C4829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82509,6 +82509,23 @@
         </is>
       </c>
     </row>
+    <row r="4829">
+      <c r="A4829" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B4829" t="inlineStr">
+        <is>
+          <t>1753574400</t>
+        </is>
+      </c>
+      <c r="C4829" t="inlineStr">
+        <is>
+          <t>1891789.10467</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4829"/>
+  <dimension ref="A1:C4830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82437,7 +82437,7 @@
       </c>
       <c r="C4824" t="inlineStr">
         <is>
-          <t>1886553.04719</t>
+          <t>1889314.13861</t>
         </is>
       </c>
     </row>
@@ -82454,7 +82454,7 @@
       </c>
       <c r="C4825" t="inlineStr">
         <is>
-          <t>1886430.38874</t>
+          <t>1888862.44876</t>
         </is>
       </c>
     </row>
@@ -82471,7 +82471,7 @@
       </c>
       <c r="C4826" t="inlineStr">
         <is>
-          <t>1888060.01640</t>
+          <t>1891152.54758</t>
         </is>
       </c>
     </row>
@@ -82488,7 +82488,7 @@
       </c>
       <c r="C4827" t="inlineStr">
         <is>
-          <t>1891167.47747</t>
+          <t>1892157.51627</t>
         </is>
       </c>
     </row>
@@ -82505,7 +82505,7 @@
       </c>
       <c r="C4828" t="inlineStr">
         <is>
-          <t>1890262.89129</t>
+          <t>1891275.01295</t>
         </is>
       </c>
     </row>
@@ -82522,7 +82522,24 @@
       </c>
       <c r="C4829" t="inlineStr">
         <is>
-          <t>1891789.10467</t>
+          <t>1893257.37055</t>
+        </is>
+      </c>
+    </row>
+    <row r="4830">
+      <c r="A4830" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B4830" t="inlineStr">
+        <is>
+          <t>1753660800</t>
+        </is>
+      </c>
+      <c r="C4830" t="inlineStr">
+        <is>
+          <t>1890501.82804</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4830"/>
+  <dimension ref="A1:C4831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82505,7 +82505,7 @@
       </c>
       <c r="C4828" t="inlineStr">
         <is>
-          <t>1891275.01295</t>
+          <t>1891276.57362</t>
         </is>
       </c>
     </row>
@@ -82522,7 +82522,7 @@
       </c>
       <c r="C4829" t="inlineStr">
         <is>
-          <t>1893257.37055</t>
+          <t>1893258.93122</t>
         </is>
       </c>
     </row>
@@ -82539,7 +82539,24 @@
       </c>
       <c r="C4830" t="inlineStr">
         <is>
-          <t>1890501.82804</t>
+          <t>1890503.38871</t>
+        </is>
+      </c>
+    </row>
+    <row r="4831">
+      <c r="A4831" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B4831" t="inlineStr">
+        <is>
+          <t>1753747200</t>
+        </is>
+      </c>
+      <c r="C4831" t="inlineStr">
+        <is>
+          <t>1888562.34061</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4831"/>
+  <dimension ref="A1:C4832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82560,6 +82560,23 @@
         </is>
       </c>
     </row>
+    <row r="4832">
+      <c r="A4832" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B4832" t="inlineStr">
+        <is>
+          <t>1753833600</t>
+        </is>
+      </c>
+      <c r="C4832" t="inlineStr">
+        <is>
+          <t>1889624.21933</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4832"/>
+  <dimension ref="A1:C4833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82539,7 +82539,7 @@
       </c>
       <c r="C4830" t="inlineStr">
         <is>
-          <t>1890503.38871</t>
+          <t>1890504.10685</t>
         </is>
       </c>
     </row>
@@ -82556,7 +82556,7 @@
       </c>
       <c r="C4831" t="inlineStr">
         <is>
-          <t>1888562.34061</t>
+          <t>1888563.05874</t>
         </is>
       </c>
     </row>
@@ -82573,7 +82573,24 @@
       </c>
       <c r="C4832" t="inlineStr">
         <is>
-          <t>1889624.21933</t>
+          <t>1889624.93747</t>
+        </is>
+      </c>
+    </row>
+    <row r="4833">
+      <c r="A4833" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B4833" t="inlineStr">
+        <is>
+          <t>1753920000</t>
+        </is>
+      </c>
+      <c r="C4833" t="inlineStr">
+        <is>
+          <t>1887169.96575</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4833"/>
+  <dimension ref="A1:C4834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82590,7 +82590,24 @@
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>1887169.96575</t>
+          <t>1886919.96575</t>
+        </is>
+      </c>
+    </row>
+    <row r="4834">
+      <c r="A4834" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B4834" t="inlineStr">
+        <is>
+          <t>1754006400</t>
+        </is>
+      </c>
+      <c r="C4834" t="inlineStr">
+        <is>
+          <t>1888251.26005</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4834"/>
+  <dimension ref="A1:C4835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82573,7 +82573,7 @@
       </c>
       <c r="C4832" t="inlineStr">
         <is>
-          <t>1889624.93747</t>
+          <t>1889626.62160</t>
         </is>
       </c>
     </row>
@@ -82590,7 +82590,7 @@
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>1886919.96575</t>
+          <t>1886921.64988</t>
         </is>
       </c>
     </row>
@@ -82607,7 +82607,24 @@
       </c>
       <c r="C4834" t="inlineStr">
         <is>
-          <t>1888251.26005</t>
+          <t>1888253.06395</t>
+        </is>
+      </c>
+    </row>
+    <row r="4835">
+      <c r="A4835" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B4835" t="inlineStr">
+        <is>
+          <t>1754092800</t>
+        </is>
+      </c>
+      <c r="C4835" t="inlineStr">
+        <is>
+          <t>1887961.59102</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4835"/>
+  <dimension ref="A1:C4836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82628,6 +82628,23 @@
         </is>
       </c>
     </row>
+    <row r="4836">
+      <c r="A4836" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B4836" t="inlineStr">
+        <is>
+          <t>1754179200</t>
+        </is>
+      </c>
+      <c r="C4836" t="inlineStr">
+        <is>
+          <t>1886562.02986</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4836"/>
+  <dimension ref="A1:C4838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82573,7 +82573,7 @@
       </c>
       <c r="C4832" t="inlineStr">
         <is>
-          <t>1889626.62160</t>
+          <t>1907739.57503</t>
         </is>
       </c>
     </row>
@@ -82590,7 +82590,7 @@
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>1886921.64988</t>
+          <t>1904416.62668</t>
         </is>
       </c>
     </row>
@@ -82607,7 +82607,7 @@
       </c>
       <c r="C4834" t="inlineStr">
         <is>
-          <t>1888253.06395</t>
+          <t>1905453.33372</t>
         </is>
       </c>
     </row>
@@ -82624,7 +82624,7 @@
       </c>
       <c r="C4835" t="inlineStr">
         <is>
-          <t>1887961.59102</t>
+          <t>1905532.51455</t>
         </is>
       </c>
     </row>
@@ -82641,7 +82641,41 @@
       </c>
       <c r="C4836" t="inlineStr">
         <is>
-          <t>1886562.02986</t>
+          <t>1904075.96612</t>
+        </is>
+      </c>
+    </row>
+    <row r="4837">
+      <c r="A4837" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B4837" t="inlineStr">
+        <is>
+          <t>1754265600</t>
+        </is>
+      </c>
+      <c r="C4837" t="inlineStr">
+        <is>
+          <t>1904759.38609</t>
+        </is>
+      </c>
+    </row>
+    <row r="4838">
+      <c r="A4838" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B4838" t="inlineStr">
+        <is>
+          <t>1754352000</t>
+        </is>
+      </c>
+      <c r="C4838" t="inlineStr">
+        <is>
+          <t>1900104.89453</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4838"/>
+  <dimension ref="A1:C4839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82641,7 +82641,7 @@
       </c>
       <c r="C4836" t="inlineStr">
         <is>
-          <t>1904075.96612</t>
+          <t>1904075.98744</t>
         </is>
       </c>
     </row>
@@ -82658,7 +82658,7 @@
       </c>
       <c r="C4837" t="inlineStr">
         <is>
-          <t>1904759.38609</t>
+          <t>1904759.40741</t>
         </is>
       </c>
     </row>
@@ -82675,7 +82675,24 @@
       </c>
       <c r="C4838" t="inlineStr">
         <is>
-          <t>1900104.89453</t>
+          <t>1900104.91585</t>
+        </is>
+      </c>
+    </row>
+    <row r="4839">
+      <c r="A4839" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B4839" t="inlineStr">
+        <is>
+          <t>1754438400</t>
+        </is>
+      </c>
+      <c r="C4839" t="inlineStr">
+        <is>
+          <t>1898551.69338</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4839"/>
+  <dimension ref="A1:C4840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82696,6 +82696,23 @@
         </is>
       </c>
     </row>
+    <row r="4840">
+      <c r="A4840" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B4840" t="inlineStr">
+        <is>
+          <t>1754524800</t>
+        </is>
+      </c>
+      <c r="C4840" t="inlineStr">
+        <is>
+          <t>1898223.67473</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4840"/>
+  <dimension ref="A1:C4841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="C4838" t="inlineStr">
         <is>
-          <t>1900104.91585</t>
+          <t>1900104.93692</t>
         </is>
       </c>
     </row>
@@ -82692,7 +82692,7 @@
       </c>
       <c r="C4839" t="inlineStr">
         <is>
-          <t>1898551.69338</t>
+          <t>1898551.71446</t>
         </is>
       </c>
     </row>
@@ -82709,7 +82709,24 @@
       </c>
       <c r="C4840" t="inlineStr">
         <is>
-          <t>1898223.67473</t>
+          <t>1898223.69580</t>
+        </is>
+      </c>
+    </row>
+    <row r="4841">
+      <c r="A4841" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B4841" t="inlineStr">
+        <is>
+          <t>1754611200</t>
+        </is>
+      </c>
+      <c r="C4841" t="inlineStr">
+        <is>
+          <t>1894692.80450</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4841"/>
+  <dimension ref="A1:C4843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82709,7 +82709,7 @@
       </c>
       <c r="C4840" t="inlineStr">
         <is>
-          <t>1898223.69580</t>
+          <t>1898223.71706</t>
         </is>
       </c>
     </row>
@@ -82726,7 +82726,41 @@
       </c>
       <c r="C4841" t="inlineStr">
         <is>
-          <t>1894692.80450</t>
+          <t>1894692.82576</t>
+        </is>
+      </c>
+    </row>
+    <row r="4842">
+      <c r="A4842" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B4842" t="inlineStr">
+        <is>
+          <t>1754697600</t>
+        </is>
+      </c>
+      <c r="C4842" t="inlineStr">
+        <is>
+          <t>1897790.97342</t>
+        </is>
+      </c>
+    </row>
+    <row r="4843">
+      <c r="A4843" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B4843" t="inlineStr">
+        <is>
+          <t>1754784000</t>
+        </is>
+      </c>
+      <c r="C4843" t="inlineStr">
+        <is>
+          <t>1897097.92470</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4843"/>
+  <dimension ref="A1:C4844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="C4838" t="inlineStr">
         <is>
-          <t>1900104.93692</t>
+          <t>1903872.15835</t>
         </is>
       </c>
     </row>
@@ -82692,7 +82692,7 @@
       </c>
       <c r="C4839" t="inlineStr">
         <is>
-          <t>1898551.71446</t>
+          <t>1902485.02619</t>
         </is>
       </c>
     </row>
@@ -82709,7 +82709,7 @@
       </c>
       <c r="C4840" t="inlineStr">
         <is>
-          <t>1898223.71706</t>
+          <t>1902248.00317</t>
         </is>
       </c>
     </row>
@@ -82761,6 +82761,23 @@
       <c r="C4843" t="inlineStr">
         <is>
           <t>1897097.92470</t>
+        </is>
+      </c>
+    </row>
+    <row r="4844">
+      <c r="A4844" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B4844" t="inlineStr">
+        <is>
+          <t>1754870400</t>
+        </is>
+      </c>
+      <c r="C4844" t="inlineStr">
+        <is>
+          <t>1897576.79979</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4844"/>
+  <dimension ref="A1:C4845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82726,7 +82726,7 @@
       </c>
       <c r="C4841" t="inlineStr">
         <is>
-          <t>1894692.82576</t>
+          <t>1897752.36231</t>
         </is>
       </c>
     </row>
@@ -82743,7 +82743,7 @@
       </c>
       <c r="C4842" t="inlineStr">
         <is>
-          <t>1897790.97342</t>
+          <t>1900298.66717</t>
         </is>
       </c>
     </row>
@@ -82760,7 +82760,7 @@
       </c>
       <c r="C4843" t="inlineStr">
         <is>
-          <t>1897097.92470</t>
+          <t>1898954.29188</t>
         </is>
       </c>
     </row>
@@ -82777,7 +82777,24 @@
       </c>
       <c r="C4844" t="inlineStr">
         <is>
-          <t>1897576.79979</t>
+          <t>1897578.37525</t>
+        </is>
+      </c>
+    </row>
+    <row r="4845">
+      <c r="A4845" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B4845" t="inlineStr">
+        <is>
+          <t>1754956800</t>
+        </is>
+      </c>
+      <c r="C4845" t="inlineStr">
+        <is>
+          <t>1896378.79933</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4845"/>
+  <dimension ref="A1:C4846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82760,7 +82760,7 @@
       </c>
       <c r="C4843" t="inlineStr">
         <is>
-          <t>1898954.29188</t>
+          <t>1898955.49215</t>
         </is>
       </c>
     </row>
@@ -82777,7 +82777,7 @@
       </c>
       <c r="C4844" t="inlineStr">
         <is>
-          <t>1897578.37525</t>
+          <t>1897579.57552</t>
         </is>
       </c>
     </row>
@@ -82794,7 +82794,24 @@
       </c>
       <c r="C4845" t="inlineStr">
         <is>
-          <t>1896378.79933</t>
+          <t>1896279.99140</t>
+        </is>
+      </c>
+    </row>
+    <row r="4846">
+      <c r="A4846" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B4846" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C4846" t="inlineStr">
+        <is>
+          <t>1893200.02550</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4846"/>
+  <dimension ref="A1:C4847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82777,7 +82777,7 @@
       </c>
       <c r="C4844" t="inlineStr">
         <is>
-          <t>1897579.57552</t>
+          <t>1897579.58617</t>
         </is>
       </c>
     </row>
@@ -82794,7 +82794,7 @@
       </c>
       <c r="C4845" t="inlineStr">
         <is>
-          <t>1896279.99140</t>
+          <t>1896280.00205</t>
         </is>
       </c>
     </row>
@@ -82811,7 +82811,24 @@
       </c>
       <c r="C4846" t="inlineStr">
         <is>
-          <t>1893200.02550</t>
+          <t>1893200.03615</t>
+        </is>
+      </c>
+    </row>
+    <row r="4847">
+      <c r="A4847" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B4847" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C4847" t="inlineStr">
+        <is>
+          <t>1890114.52674</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4874"/>
+  <dimension ref="A1:B4875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49175,6 +49175,16 @@
         <v>716989.3590000001</v>
       </c>
     </row>
+    <row r="4875">
+      <c r="A4875" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B4875" t="n">
+        <v>714038.929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4875"/>
+  <dimension ref="A1:B4876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49185,6 +49185,16 @@
         <v>714038.929</v>
       </c>
     </row>
+    <row r="4876">
+      <c r="A4876" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B4876" t="n">
+        <v>713459.4669999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4876"/>
+  <dimension ref="A1:B4877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49195,6 +49195,16 @@
         <v>713459.4669999999</v>
       </c>
     </row>
+    <row r="4877">
+      <c r="A4877" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B4877" t="n">
+        <v>715972.972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4877"/>
+  <dimension ref="A1:B4879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49205,6 +49205,26 @@
         <v>715972.972</v>
       </c>
     </row>
+    <row r="4878">
+      <c r="A4878" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B4878" t="n">
+        <v>713825.8100000001</v>
+      </c>
+    </row>
+    <row r="4879">
+      <c r="A4879" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B4879" t="n">
+        <v>713825.8100000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4879"/>
+  <dimension ref="A1:B4880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49225,6 +49225,16 @@
         <v>713825.8100000001</v>
       </c>
     </row>
+    <row r="4880">
+      <c r="A4880" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B4880" t="n">
+        <v>710203.775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4880"/>
+  <dimension ref="A1:B4881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49235,6 +49235,16 @@
         <v>710203.775</v>
       </c>
     </row>
+    <row r="4881">
+      <c r="A4881" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B4881" t="n">
+        <v>708585.2340000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4881"/>
+  <dimension ref="A1:B4882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49245,6 +49245,16 @@
         <v>708585.2340000001</v>
       </c>
     </row>
+    <row r="4882">
+      <c r="A4882" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B4882" t="n">
+        <v>711586.563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4882"/>
+  <dimension ref="A1:B4883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49255,6 +49255,16 @@
         <v>711586.563</v>
       </c>
     </row>
+    <row r="4883">
+      <c r="A4883" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B4883" t="n">
+        <v>708563.344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4883"/>
+  <dimension ref="A1:B4884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49265,6 +49265,16 @@
         <v>708563.344</v>
       </c>
     </row>
+    <row r="4884">
+      <c r="A4884" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B4884" t="n">
+        <v>707130.005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4884"/>
+  <dimension ref="A1:B4885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49275,6 +49275,16 @@
         <v>707130.005</v>
       </c>
     </row>
+    <row r="4885">
+      <c r="A4885" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B4885" t="n">
+        <v>706851.075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4885"/>
+  <dimension ref="A1:B4886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49285,6 +49285,16 @@
         <v>706851.075</v>
       </c>
     </row>
+    <row r="4886">
+      <c r="A4886" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B4886" t="n">
+        <v>703125.037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4886"/>
+  <dimension ref="A1:B4887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49295,6 +49295,16 @@
         <v>703125.037</v>
       </c>
     </row>
+    <row r="4887">
+      <c r="A4887" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B4887" t="n">
+        <v>713573.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4887"/>
+  <dimension ref="A1:B4888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49305,6 +49305,16 @@
         <v>713573.76</v>
       </c>
     </row>
+    <row r="4888">
+      <c r="A4888" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B4888" t="n">
+        <v>710890.1850000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4888"/>
+  <dimension ref="A1:B4891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49315,6 +49315,36 @@
         <v>710890.1850000001</v>
       </c>
     </row>
+    <row r="4889">
+      <c r="A4889" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B4889" t="n">
+        <v>708205.8639999999</v>
+      </c>
+    </row>
+    <row r="4890">
+      <c r="A4890" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B4890" t="n">
+        <v>710989.058</v>
+      </c>
+    </row>
+    <row r="4891">
+      <c r="A4891" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B4891" t="n">
+        <v>711445.789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4891"/>
+  <dimension ref="A1:B4892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49345,6 +49345,16 @@
         <v>711445.789</v>
       </c>
     </row>
+    <row r="4892">
+      <c r="A4892" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B4892" t="n">
+        <v>711384.228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4892"/>
+  <dimension ref="A1:B4893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49355,6 +49355,16 @@
         <v>711384.228</v>
       </c>
     </row>
+    <row r="4893">
+      <c r="A4893" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B4893" t="n">
+        <v>712559.429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4893"/>
+  <dimension ref="A1:B4894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49365,6 +49365,16 @@
         <v>712559.429</v>
       </c>
     </row>
+    <row r="4894">
+      <c r="A4894" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B4894" t="n">
+        <v>706019.262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4894"/>
+  <dimension ref="A1:B4895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49375,6 +49375,16 @@
         <v>706019.262</v>
       </c>
     </row>
+    <row r="4895">
+      <c r="A4895" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B4895" t="n">
+        <v>701015.5870000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4895"/>
+  <dimension ref="A1:B4897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49385,6 +49385,26 @@
         <v>701015.5870000001</v>
       </c>
     </row>
+    <row r="4896">
+      <c r="A4896" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B4896" t="n">
+        <v>693212.738</v>
+      </c>
+    </row>
+    <row r="4897">
+      <c r="A4897" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B4897" t="n">
+        <v>693212.738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4897"/>
+  <dimension ref="A1:B4898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49405,6 +49405,16 @@
         <v>693212.738</v>
       </c>
     </row>
+    <row r="4898">
+      <c r="A4898" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B4898" t="n">
+        <v>702392.664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4898"/>
+  <dimension ref="A1:B4899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49415,6 +49415,16 @@
         <v>702392.664</v>
       </c>
     </row>
+    <row r="4899">
+      <c r="A4899" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B4899" t="n">
+        <v>704283.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4899"/>
+  <dimension ref="A1:B4900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49425,6 +49425,16 @@
         <v>704283.575</v>
       </c>
     </row>
+    <row r="4900">
+      <c r="A4900" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B4900" t="n">
+        <v>701733.714</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4900"/>
+  <dimension ref="A1:B4902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49435,6 +49435,26 @@
         <v>701733.714</v>
       </c>
     </row>
+    <row r="4901">
+      <c r="A4901" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B4901" t="n">
+        <v>707643.895</v>
+      </c>
+    </row>
+    <row r="4902">
+      <c r="A4902" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B4902" t="n">
+        <v>707643.895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4902"/>
+  <dimension ref="A1:B4903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49455,6 +49455,16 @@
         <v>707643.895</v>
       </c>
     </row>
+    <row r="4903">
+      <c r="A4903" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B4903" t="n">
+        <v>704081.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4903"/>
+  <dimension ref="A1:B4904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49465,6 +49465,16 @@
         <v>704081.446</v>
       </c>
     </row>
+    <row r="4904">
+      <c r="A4904" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B4904" t="n">
+        <v>703996.427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4904"/>
+  <dimension ref="A1:B4905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49475,6 +49475,16 @@
         <v>703996.427</v>
       </c>
     </row>
+    <row r="4905">
+      <c r="A4905" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B4905" t="n">
+        <v>711862.893</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4905"/>
+  <dimension ref="A1:B4906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49485,6 +49485,16 @@
         <v>711862.893</v>
       </c>
     </row>
+    <row r="4906">
+      <c r="A4906" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B4906" t="n">
+        <v>711186.5870000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4906"/>
+  <dimension ref="A1:B4908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49495,6 +49495,26 @@
         <v>711186.5870000001</v>
       </c>
     </row>
+    <row r="4907">
+      <c r="A4907" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B4907" t="n">
+        <v>713377.152</v>
+      </c>
+    </row>
+    <row r="4908">
+      <c r="A4908" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B4908" t="n">
+        <v>713377.152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4908"/>
+  <dimension ref="A1:B4909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49515,6 +49515,16 @@
         <v>713377.152</v>
       </c>
     </row>
+    <row r="4909">
+      <c r="A4909" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B4909" t="n">
+        <v>714032.3860000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4909"/>
+  <dimension ref="A1:B4910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49525,6 +49525,16 @@
         <v>714032.3860000001</v>
       </c>
     </row>
+    <row r="4910">
+      <c r="A4910" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B4910" t="n">
+        <v>718447.932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4910"/>
+  <dimension ref="A1:B4912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49535,6 +49535,26 @@
         <v>718447.932</v>
       </c>
     </row>
+    <row r="4911">
+      <c r="A4911" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B4911" t="n">
+        <v>721261.032</v>
+      </c>
+    </row>
+    <row r="4912">
+      <c r="A4912" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B4912" t="n">
+        <v>721261.032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4912"/>
+  <dimension ref="A1:B4913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49555,6 +49555,16 @@
         <v>721261.032</v>
       </c>
     </row>
+    <row r="4913">
+      <c r="A4913" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B4913" t="n">
+        <v>719130.432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4913"/>
+  <dimension ref="A1:B4914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49565,6 +49565,16 @@
         <v>719130.432</v>
       </c>
     </row>
+    <row r="4914">
+      <c r="A4914" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B4914" t="n">
+        <v>717080.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4914"/>
+  <dimension ref="A1:B4915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49575,6 +49575,16 @@
         <v>717080.59</v>
       </c>
     </row>
+    <row r="4915">
+      <c r="A4915" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B4915" t="n">
+        <v>722317.845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4915"/>
+  <dimension ref="A1:B4916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49585,6 +49585,16 @@
         <v>722317.845</v>
       </c>
     </row>
+    <row r="4916">
+      <c r="A4916" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B4916" t="n">
+        <v>722590.845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4916"/>
+  <dimension ref="A1:B4917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49595,6 +49595,16 @@
         <v>722590.845</v>
       </c>
     </row>
+    <row r="4917">
+      <c r="A4917" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B4917" t="n">
+        <v>725375.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4917"/>
+  <dimension ref="A1:B4918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49605,6 +49605,16 @@
         <v>725375.5</v>
       </c>
     </row>
+    <row r="4918">
+      <c r="A4918" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4918" t="n">
+        <v>724230.171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4918"/>
+  <dimension ref="A1:B4919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49615,6 +49615,16 @@
         <v>724230.171</v>
       </c>
     </row>
+    <row r="4919">
+      <c r="A4919" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B4919" t="n">
+        <v>724366.895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4919"/>
+  <dimension ref="A1:B4920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49625,6 +49625,16 @@
         <v>724366.895</v>
       </c>
     </row>
+    <row r="4920">
+      <c r="A4920" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B4920" t="n">
+        <v>725742.807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_reserves.xlsx
+++ b/data_cripto/btc_miner_reserves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4920"/>
+  <dimension ref="A1:B4921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49635,6 +49635,16 @@
         <v>725742.807</v>
       </c>
     </row>
+    <row r="4921">
+      <c r="A4921" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4921" t="n">
+        <v>726337.874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
